--- a/functional_tests/CompareDatasetsMODIFIED.xlsx
+++ b/functional_tests/CompareDatasetsMODIFIED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmehrabanian/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD2CE2E-35BB-6D43-ACA9-317A765935BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D735434-5CEC-D843-9A0F-8F45E7C3D930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="600" windowWidth="25380" windowHeight="16360" activeTab="3" xr2:uid="{C04029A9-4D6D-BC43-AC41-39E68AADE34F}"/>
+    <workbookView xWindow="3320" yWindow="600" windowWidth="25380" windowHeight="16360" xr2:uid="{C04029A9-4D6D-BC43-AC41-39E68AADE34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="670">
   <si>
     <t>DATASET 1</t>
   </si>
@@ -2222,7 +2222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2409,13 +2409,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2606,6 +2621,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -18405,8 +18423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96693A25-D094-8F43-8CE5-AA79035DEB6D}">
   <dimension ref="A1:S142"/>
   <sheetViews>
-    <sheetView topLeftCell="E77" zoomScale="81" workbookViewId="0">
-      <selection activeCell="S114" sqref="S114"/>
+    <sheetView tabSelected="1" topLeftCell="C88" zoomScale="81" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19858,7 +19876,8 @@
       <c r="E35" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="5"/>
+      <c r="G35" s="86" t="s">
         <v>124</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -19900,7 +19919,8 @@
       <c r="E36" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="5"/>
+      <c r="G36" s="86" t="s">
         <v>124</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -20280,7 +20300,7 @@
       <c r="E45" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>124</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -20322,7 +20342,7 @@
       <c r="E46" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>124</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -20364,7 +20384,7 @@
       <c r="E47" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>124</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -20406,7 +20426,7 @@
       <c r="E48" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>124</v>
       </c>
       <c r="H48" s="3" t="s">
@@ -20658,7 +20678,8 @@
       <c r="E54" t="s">
         <v>129</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="5"/>
+      <c r="G54" s="86" t="s">
         <v>124</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -21037,7 +21058,8 @@
       <c r="E63" t="s">
         <v>133</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="5"/>
+      <c r="G63" s="5" t="s">
         <v>124</v>
       </c>
       <c r="H63" s="3" t="s">
@@ -21202,7 +21224,8 @@
       <c r="E67" t="s">
         <v>133</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="5"/>
+      <c r="G67" s="5" t="s">
         <v>124</v>
       </c>
       <c r="H67" s="7" t="s">
@@ -21247,6 +21270,7 @@
       <c r="F68" s="5" t="s">
         <v>124</v>
       </c>
+      <c r="G68" s="5"/>
       <c r="H68" s="3" t="s">
         <v>123</v>
       </c>
@@ -21286,7 +21310,8 @@
       <c r="E69" t="s">
         <v>133</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="5"/>
+      <c r="G69" s="5" t="s">
         <v>124</v>
       </c>
       <c r="H69" s="8" t="s">
@@ -21707,7 +21732,7 @@
         <v>123</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="17">
         <v>0</v>
@@ -22863,6 +22888,9 @@
       <c r="E107" t="s">
         <v>129</v>
       </c>
+      <c r="G107" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="I107">
         <v>0</v>
       </c>
@@ -23056,7 +23084,7 @@
       </c>
       <c r="I113" s="50">
         <f>SUM(I3:I111)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="2:19">
@@ -23081,7 +23109,7 @@
       </c>
       <c r="I115" s="56">
         <f>I113/I114</f>
-        <v>0.78899082568807344</v>
+        <v>0.77981651376146788</v>
       </c>
     </row>
     <row r="116" spans="2:19" ht="18" thickTop="1" thickBot="1">
@@ -23314,8 +23342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834F550A-9366-3A4D-9A7A-BE679170B6FB}">
   <dimension ref="A1:Q128"/>
   <sheetViews>
-    <sheetView topLeftCell="J92" zoomScale="97" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="M119" sqref="M119"/>
+    <sheetView topLeftCell="C94" zoomScale="97" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28816,8 +28844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDC0AD3-6016-404E-BB29-87E82CFBD6B1}">
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView topLeftCell="J91" workbookViewId="0">
-      <selection activeCell="O114" sqref="O114"/>
+    <sheetView topLeftCell="C101" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28941,6 +28969,9 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="H4" s="5">
         <v>0</v>
       </c>
@@ -29622,6 +29653,9 @@
       <c r="D23" s="3">
         <v>0</v>
       </c>
+      <c r="G23" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="H23" s="5">
         <v>0</v>
       </c>
@@ -32679,11 +32713,11 @@
       <c r="D108" s="3">
         <v>0</v>
       </c>
-      <c r="G108" s="5" t="s">
+      <c r="F108" s="5" t="s">
         <v>124</v>
       </c>
       <c r="H108" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" s="5">
         <v>5</v>
@@ -32825,7 +32859,7 @@
       </c>
       <c r="F113" s="43">
         <f>SUM(H3:H111)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>488</v>
@@ -32871,7 +32905,7 @@
       </c>
       <c r="F115" s="55">
         <f>F113/F114</f>
-        <v>0.69724770642201839</v>
+        <v>0.70642201834862384</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -33000,8 +33034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B772894-9D61-1643-BB69-B9555E5037F7}">
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O114" sqref="O114"/>
+    <sheetView topLeftCell="C89" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -33377,11 +33411,11 @@
       <c r="D12" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>124</v>
       </c>
       <c r="H12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="17">
         <v>0</v>
@@ -33441,11 +33475,12 @@
       <c r="D14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="F14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="41"/>
       <c r="H14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>113</v>
@@ -33473,11 +33508,11 @@
       <c r="D15" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>124</v>
       </c>
       <c r="H15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="5">
         <v>5</v>
@@ -33633,7 +33668,7 @@
       <c r="D20" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="5" t="s">
         <v>124</v>
       </c>
@@ -34376,7 +34411,7 @@
         <v>124</v>
       </c>
       <c r="H43" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="5">
         <v>5</v>
@@ -36613,7 +36648,7 @@
       </c>
       <c r="F114" s="43">
         <f>SUM(H3:H112)</f>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N114" s="84" t="s">
         <v>546</v>
@@ -36647,7 +36682,7 @@
       </c>
       <c r="F116" s="55">
         <f>F114/F115</f>
-        <v>0.60909090909090913</v>
+        <v>0.6454545454545455</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>490</v>
